--- a/Mendix/input/data/Global_Material_Data.xlsx
+++ b/Mendix/input/data/Global_Material_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix_Workspace\Mendix\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumarSundaramo\git\Mendix_New\Mendix\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88196BE8-16D6-402F-886F-A45C03FB0D50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCA9B8C-0089-484B-AEC0-F2CC7C1EC0BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{92753D1E-95E7-49CB-AD96-B588CC3DB29F}"/>
   </bookViews>

--- a/Mendix/input/data/Global_Material_Data.xlsx
+++ b/Mendix/input/data/Global_Material_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumarSundaramo\git\Mendix_New\Mendix\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCA9B8C-0089-484B-AEC0-F2CC7C1EC0BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E541DB-B184-467F-9E07-D15C5307B21A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{92753D1E-95E7-49CB-AD96-B588CC3DB29F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="148">
   <si>
     <t>Fields</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Unit of Weight</t>
   </si>
   <si>
-    <t>EAN/UPC</t>
-  </si>
-  <si>
     <t>Material Type</t>
   </si>
   <si>
@@ -310,6 +307,171 @@
   </si>
   <si>
     <t>02, Keg</t>
+  </si>
+  <si>
+    <t>Create_Material_Global_and_Local_for_JDE</t>
+  </si>
+  <si>
+    <t>Stocking Type Local</t>
+  </si>
+  <si>
+    <t>BackOrders Allowed</t>
+  </si>
+  <si>
+    <t>Lot Status Code</t>
+  </si>
+  <si>
+    <t>Commitment Date Method</t>
+  </si>
+  <si>
+    <t>Lot Calculation Algorithm</t>
+  </si>
+  <si>
+    <t>Cycle Count Category</t>
+  </si>
+  <si>
+    <t>Fixed/Variable Lead Time</t>
+  </si>
+  <si>
+    <t>Planning time fence  rule</t>
+  </si>
+  <si>
+    <t>Value Order Policy</t>
+  </si>
+  <si>
+    <t>Issue Type Code</t>
+  </si>
+  <si>
+    <t>Reorder Point - Input</t>
+  </si>
+  <si>
+    <t>Reorder Quantity-Min</t>
+  </si>
+  <si>
+    <t>Safety Stock</t>
+  </si>
+  <si>
+    <t>Check Availaibility</t>
+  </si>
+  <si>
+    <t>Serial Number Required</t>
+  </si>
+  <si>
+    <t>Lot Process Type</t>
+  </si>
+  <si>
+    <t>Country of Origin Required</t>
+  </si>
+  <si>
+    <t>Lot Expiration Date Cal Method</t>
+  </si>
+  <si>
+    <t>Master Planning Family</t>
+  </si>
+  <si>
+    <t>Planning Code</t>
+  </si>
+  <si>
+    <t>Freeze Time Fence Days</t>
+  </si>
+  <si>
+    <t>Order Policy Code</t>
+  </si>
+  <si>
+    <t>Time Basis Code</t>
+  </si>
+  <si>
+    <t>Reorder Quantity - Input</t>
+  </si>
+  <si>
+    <t>Reorder Quantity - Maximum</t>
+  </si>
+  <si>
+    <t>Quantity - Order Multiples (MRP)</t>
+  </si>
+  <si>
+    <t>G/L Class</t>
+  </si>
+  <si>
+    <t>Purchasing Taxable</t>
+  </si>
+  <si>
+    <t>Costing Method - Purchasing</t>
+  </si>
+  <si>
+    <t>Accounting Cost Quantity</t>
+  </si>
+  <si>
+    <t>Sales Taxable</t>
+  </si>
+  <si>
+    <t>Costing Method - Sales</t>
+  </si>
+  <si>
+    <t>KH001OC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Malt Pale C6 DE Koblenz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CMG0006
+</t>
+  </si>
+  <si>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>YROH</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>P, Purchased</t>
+  </si>
+  <si>
+    <t>3, Best Before Date</t>
+  </si>
+  <si>
+    <t>01, Bulk Product Related Materials</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>3, Lots must be Assigned Manually</t>
+  </si>
+  <si>
+    <t>1, On Hand Date</t>
+  </si>
+  <si>
+    <t>097, Typ. 09 - S&amp;OP - MRP</t>
+  </si>
+  <si>
+    <t>0, Not Planned</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CTDB, CTS - DB Inst Non-Cap</t>
+  </si>
+  <si>
+    <t>07, Standard</t>
+  </si>
+  <si>
+    <t>08, Purchasing-Base Cost No Adds</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>25000</t>
   </si>
 </sst>
 </file>
@@ -410,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -434,6 +596,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,16 +911,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D1E45-5652-489D-98CC-1DC9815FE9A3}">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:CC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -767,56 +930,89 @@
     <col min="9" max="9" width="25.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="39" max="46" width="9.140625" style="8"/>
-    <col min="47" max="47" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="6"/>
+    <col min="12" max="12" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.140625" style="8"/>
+    <col min="40" max="40" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="9.140625" style="8"/>
+    <col min="46" max="46" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="31.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="31.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="26.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="82" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -848,7 +1044,7 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="9" t="s">
@@ -915,10 +1111,10 @@
         <v>33</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="9" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AN1" s="9" t="s">
         <v>79</v>
@@ -929,10 +1125,10 @@
       <c r="AP1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" s="9"/>
       <c r="AS1" s="9" t="s">
         <v>83</v>
       </c>
@@ -949,44 +1145,139 @@
         <v>87</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC1" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
@@ -994,10 +1285,10 @@
         <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>44</v>
@@ -1009,62 +1300,60 @@
         <v>46</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="AB2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>49</v>
       </c>
       <c r="AE2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AJ2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
@@ -1076,43 +1365,44 @@
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
       <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
     </row>
-    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1120,10 +1410,10 @@
         <v>42</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>44</v>
@@ -1135,62 +1425,60 @@
         <v>46</v>
       </c>
       <c r="T3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="AB3" s="10" t="s">
         <v>48</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="AE3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="AI3" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AJ3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AK3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
@@ -1202,130 +1490,131 @@
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
     </row>
-    <row r="4" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="W4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="AB4" s="10" t="s">
         <v>48</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD4" s="10" t="s">
         <v>49</v>
       </c>
       <c r="AE4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="AI4" s="10" t="s">
         <v>51</v>
       </c>
       <c r="AJ4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AL4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="AQ4" s="7" t="s">
         <v>70</v>
@@ -1340,16 +1629,256 @@
         <v>73</v>
       </c>
       <c r="AU4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV4" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="AV4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="AW4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AX4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="10">
+        <v>1</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA5" s="12">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR5" s="13">
+        <v>7</v>
+      </c>
+      <c r="BS5" s="13">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="13">
+        <v>4</v>
+      </c>
+      <c r="BU5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="13">
+        <v>7</v>
+      </c>
+      <c r="BX5" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BZ5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="CA5" s="13"/>
+      <c r="CB5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC5" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Mendix/input/data/Global_Material_Data.xlsx
+++ b/Mendix/input/data/Global_Material_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumarSundaramo\git\Mendix_New\Mendix\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E541DB-B184-467F-9E07-D15C5307B21A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046E1194-F6E5-4D25-8B96-8C98E8BF64BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{92753D1E-95E7-49CB-AD96-B588CC3DB29F}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     <t>Costing Method - Sales</t>
   </si>
   <si>
-    <t>KH001OC</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 Malt Pale C6 DE Koblenz </t>
   </si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>25000</t>
+  </si>
+  <si>
+    <t>SG001OC</t>
   </si>
 </sst>
 </file>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D1E45-5652-489D-98CC-1DC9815FE9A3}">
   <dimension ref="A1:CC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="5" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>94</v>
@@ -1652,19 +1652,19 @@
         <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4">
         <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>41</v>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>46</v>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>64</v>
@@ -1730,7 +1730,7 @@
         <v>49</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF5" s="10" t="s">
         <v>64</v>
@@ -1751,10 +1751,10 @@
         <v>52</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN5" s="7" t="s">
         <v>64</v>
@@ -1799,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="BB5" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BC5" s="6">
         <v>4</v>
       </c>
       <c r="BD5" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BE5" s="12" t="s">
         <v>39</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BH5" s="13">
         <v>0</v>
@@ -1832,19 +1832,19 @@
         <v>51</v>
       </c>
       <c r="BM5" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BN5" s="13" t="s">
         <v>51</v>
       </c>
       <c r="BO5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP5" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="BP5" s="13" t="s">
+      <c r="BQ5" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="BQ5" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="BR5" s="13">
         <v>7</v>
@@ -1865,20 +1865,20 @@
         <v>7</v>
       </c>
       <c r="BX5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY5" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BZ5" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="BY5" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="BZ5" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="CA5" s="13"/>
       <c r="CB5" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CC5" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
